--- a/data/miso_costs_2021_clean_data.xlsx
+++ b/data/miso_costs_2021_clean_data.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristian.lande@leveltenenergy.com/Documents/GitHub/streamlit-geospatial/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7023BA5A-ED3C-6F45-8223-14F0DBEE6F90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFFFE12-DB41-0E4B-A3F3-7D2587BCD172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15700" yWindow="6020" windowWidth="28780" windowHeight="19180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9440" yWindow="2840" windowWidth="22620" windowHeight="19180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="introduction" sheetId="2" r:id="rId1"/>
     <sheet name="data" sheetId="1" r:id="rId2"/>
     <sheet name="codebook" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data!$A$1:$P$923</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -3401,7 +3404,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3429,6 +3432,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3606,7 +3615,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3672,6 +3681,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4108,7 +4119,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
@@ -5112,8 +5123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P923"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5140,7 +5151,7 @@
       <c r="A1" s="29" t="s">
         <v>1010</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="39" t="s">
         <v>1011</v>
       </c>
       <c r="C1" s="29" t="s">
@@ -5155,7 +5166,7 @@
       <c r="F1" s="29" t="s">
         <v>1015</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="39" t="s">
         <v>1016</v>
       </c>
       <c r="H1" s="29" t="s">
@@ -5170,10 +5181,10 @@
       <c r="K1" s="29" t="s">
         <v>1020</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="39" t="s">
         <v>1021</v>
       </c>
-      <c r="M1" s="29" t="s">
+      <c r="M1" s="39" t="s">
         <v>1022</v>
       </c>
       <c r="N1" s="29" t="s">
@@ -9293,7 +9304,7 @@
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="A93" s="33" t="s">
         <v>1039</v>
       </c>
       <c r="B93" s="31">
@@ -47471,7 +47482,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -47548,7 +47559,7 @@
       <c r="A9" s="34" t="s">
         <v>1017</v>
       </c>
-      <c r="B9" s="34" t="s">
+      <c r="B9" s="40" t="s">
         <v>1000</v>
       </c>
     </row>
